--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -6629,7 +6629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -6733,28 +6733,28 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7058081217948181</v>
+        <v>0.7373286801739447</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.02119438956013448</v>
+        <v>0.01892356210726293</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>4.501953213410244e-05</v>
+        <v>4.019601083402003e-05</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.2657785897968509</v>
+        <v>0.250695169461474</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.3825335129061243</v>
+        <v>0.4130120650947539</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.2292861748104591</v>
+        <v>0.2403983703664813</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.32</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.5562472450729039</v>
+        <v>0.5148636116722356</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
@@ -6763,7 +6763,7 @@
         <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="3" t="n"/>
@@ -6775,37 +6775,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.5857745062370062</v>
+        <v>0.6284510604232003</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.4545638004591129</v>
+        <v>0.4822876597150034</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.02924597723925848</v>
+        <v>0.04197494662004328</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.451782355552668</v>
+        <v>0.4876865924645717</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1313423607501732</v>
+        <v>0.1294201562353177</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.05141610252079001</v>
+        <v>0.05250869792033721</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4851485148514851</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>2.069004483482693</v>
+        <v>2.419232651116543</v>
       </c>
       <c r="K3" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L3" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M3" t="n">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="3" t="n"/>
@@ -6817,28 +6817,28 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6992743409285055</v>
+        <v>0.684513278637505</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.186844032709886</v>
+        <v>0.1730037339906352</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.009979084071230939</v>
+        <v>0.009239892658547166</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5282276927461582</v>
+        <v>0.4890997155057021</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.322667875207923</v>
+        <v>0.2987665511184472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1569428967083105</v>
+        <v>0.1453174969521394</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>1.340263088313063</v>
+        <v>1.240984341030614</v>
       </c>
       <c r="K4" t="n">
         <v>14</v>
@@ -6847,7 +6847,7 @@
         <v>25</v>
       </c>
       <c r="M4" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5">
@@ -6862,28 +6862,28 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.603594025291276</v>
+        <v>0.6739504758053352</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.06301813624000326</v>
+        <v>0.03554869223795055</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>5.419711362805991e-05</v>
+        <v>3.057273076454662e-05</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.3603351550765234</v>
+        <v>0.3279326515816286</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3119893587869931</v>
+        <v>0.2274298947003551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1259590336134454</v>
+        <v>0.122489711269123</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.5830882352941177</v>
+        <v>0.6645625942684766</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
@@ -6892,7 +6892,7 @@
         <v>22</v>
       </c>
       <c r="M5" t="n">
-        <v>638</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6">
@@ -6955,6 +6955,13 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>5 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6 07</t>
         </is>
       </c>
     </row>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -6296,7 +6296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -6389,37 +6389,37 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6410706045554677</v>
+        <v>0.6335271936241349</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0173266323977388</v>
+        <v>0.01788662688329275</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0002060018534594343</v>
+        <v>3.468398553143536e-05</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.137776773544676</v>
+        <v>0.1371307833008893</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.1651483533027549</v>
+        <v>0.1400759982601577</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.08374974924648115</v>
+        <v>0.06982011084251979</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.2677878627651927</v>
+        <v>0.269627548322711</v>
       </c>
       <c r="K2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M2" t="n">
-        <v>1490</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="3">
@@ -6429,37 +6429,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4102847064653399</v>
+        <v>0.3769474335128222</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2157598202309275</v>
+        <v>0.1891935260507964</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03182771720549187</v>
+        <v>0.03316928101246092</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3256867044689806</v>
+        <v>0.2875577504696017</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1441311728748142</v>
+        <v>0.1293986742640905</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06372765452901342</v>
+        <v>0.0642192425518946</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>1.861791015167734</v>
+        <v>1.679508122943837</v>
       </c>
       <c r="K3" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L3" t="n">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="M3" t="n">
-        <v>938</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="4">
@@ -6469,37 +6469,37 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6989262357210435</v>
+        <v>0.6992848603328756</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.4475406981167066</v>
+        <v>0.4513679698655472</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.05788063518824606</v>
+        <v>0.06015822264993204</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.6038435260554892</v>
+        <v>0.6058997157815537</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1506464253538585</v>
+        <v>0.1417468333889156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07328170769845044</v>
+        <v>0.06450392713118801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5929203539823009</v>
+        <v>0.6014669926650367</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>3.260114814546728</v>
+        <v>3.67422185094566</v>
       </c>
       <c r="K4" t="n">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="L4" t="n">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="M4" t="n">
-        <v>1231</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="5">
@@ -6514,37 +6514,37 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.3998466307253479</v>
+        <v>0.3807338378596957</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.02722949075859472</v>
+        <v>0.01628372863659878</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.001089426543761614</v>
+        <v>0.0002514061254834494</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1999854684074436</v>
+        <v>0.1669197234786408</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1013139587724644</v>
+        <v>0.07107245202441487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05863513676372856</v>
+        <v>0.04199272386855275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.5998496315416644</v>
+        <v>0.4845806842019226</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M5" t="n">
-        <v>1446</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="6">
@@ -6614,6 +6614,13 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>6 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0607</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -6733,28 +6740,28 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7373286801739447</v>
+        <v>0.7654720358695934</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01892356210726293</v>
+        <v>0.01689603759577047</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>4.019601083402003e-05</v>
+        <v>3.588929538751789e-05</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.250695169461474</v>
+        <v>0.2372278298763161</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.4130120650947539</v>
+        <v>0.440225058120316</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.2403983703664813</v>
+        <v>0.2503199735415012</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.32</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.5148636116722356</v>
+        <v>0.4779139389930676</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
@@ -6763,7 +6770,7 @@
         <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="3" t="n"/>
@@ -6775,37 +6782,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.6284510604232003</v>
+        <v>0.662933716205645</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.4822876597150034</v>
+        <v>0.5046885379937629</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.04197494662004328</v>
+        <v>0.05225995387971739</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.4876865924645717</v>
+        <v>0.51669721588939</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1294201562353177</v>
+        <v>0.1278670149873145</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.05250869792033721</v>
+        <v>0.05339151500317135</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4907407407407408</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>2.419232651116543</v>
+        <v>2.702217010564693</v>
       </c>
       <c r="K3" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L3" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M3" t="n">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="3" t="n"/>
@@ -6817,28 +6824,28 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.684513278637505</v>
+        <v>0.6708456283680602</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1730037339906352</v>
+        <v>0.1601886425839215</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.009239892658547166</v>
+        <v>0.00855545616532145</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.4890997155057021</v>
+        <v>0.4528701069497241</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2987665511184472</v>
+        <v>0.2766356954800437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1453174969521394</v>
+        <v>0.1345532379186476</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>1.240984341030614</v>
+        <v>1.149059575028346</v>
       </c>
       <c r="K4" t="n">
         <v>14</v>
@@ -6847,7 +6854,7 @@
         <v>25</v>
       </c>
       <c r="M4" t="n">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5">
@@ -6862,28 +6869,28 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.6739504758053352</v>
+        <v>0.7136387299414712</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.03554869223795055</v>
+        <v>0.02005310844192082</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>3.057273076454662e-05</v>
+        <v>1.724615581589809e-05</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.3279326515816286</v>
+        <v>0.3096543162768161</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2274298947003551</v>
+        <v>0.1797296841899439</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.122489711269123</v>
+        <v>0.1205326576389925</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.6645625942684766</v>
+        <v>0.7105224890745253</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
@@ -6892,7 +6899,7 @@
         <v>22</v>
       </c>
       <c r="M5" t="n">
-        <v>655</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6">
@@ -6962,6 +6969,13 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>6 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0607</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U27" sqref="U27"/>
@@ -7077,37 +7091,37 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6543639870387825</v>
+        <v>0.6429271177632763</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01609258733211002</v>
+        <v>0.01751245505798328</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0001545942680695877</v>
+        <v>3.951512681599327e-05</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1430360838876079</v>
+        <v>0.1392872501416756</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.1944428268888166</v>
+        <v>0.1576378526128365</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1001164309900921</v>
+        <v>0.07918671106024776</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.2716452746488993</v>
+        <v>0.2704205410537546</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M2" t="n">
-        <v>2324</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="3">
@@ -7117,37 +7131,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.445945056363711</v>
+        <v>0.4217477082701607</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2564503964281209</v>
+        <v>0.2351100652553536</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03582026235953703</v>
+        <v>0.03816776404796612</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3614121348060121</v>
+        <v>0.3347033772363641</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1444947414866446</v>
+        <v>0.131884100015417</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06195693494652185</v>
+        <v>0.06264408092673843</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.4375</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>2.050138092296995</v>
+        <v>1.939102438952502</v>
       </c>
       <c r="K3" t="n">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L3" t="n">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="M3" t="n">
-        <v>1111</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="4">
@@ -7157,37 +7171,37 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6928516816840593</v>
+        <v>0.6944587792345889</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3784571220883841</v>
+        <v>0.4017264052114294</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.04597652909226373</v>
+        <v>0.05160273053714692</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5755782753142903</v>
+        <v>0.5841382329294302</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1810817828839235</v>
+        <v>0.1626388306951125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08732033084664179</v>
+        <v>0.07473394807781714</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5857519788918206</v>
+        <v>0.5946547884187082</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>2.895881427008542</v>
+        <v>3.340433867216402</v>
       </c>
       <c r="K4" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="M4" t="n">
-        <v>1959</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="5">
@@ -7202,37 +7216,37 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4375212146629587</v>
+        <v>0.4213303365434473</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.03319715440016936</v>
+        <v>0.01911508870543826</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.001621446799817191</v>
+        <v>0.0005927870020837042</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.238813510410701</v>
+        <v>0.2021361220856326</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1270333006691222</v>
+        <v>0.08958206691129199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07455174372435704</v>
+        <v>0.05580386329707676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4215686274509804</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.7762529610930144</v>
+        <v>0.6073397922275536</v>
       </c>
       <c r="K5" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="n">
-        <v>2101</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="6">
@@ -7330,6 +7344,13 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>6 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0607</t>
         </is>
       </c>
     </row>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="NL Stats-all sessions" sheetId="1" state="visible" r:id="rId1"/>
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -76,6 +76,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,16 +260,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.6938744810747981</v>
+                  <v>0.6335271936241349</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4699123491446398</v>
+                  <v>0.3769474335128222</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.6982476486302531</v>
+                  <v>0.6992848603328756</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4862696941178625</v>
+                  <v>0.3807338378596957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -337,16 +338,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.01340667099886112</v>
+                  <v>0.01788662688329275</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.2632767691709994</v>
+                  <v>0.1891935260507964</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.4402987601235472</v>
+                  <v>0.4513679698655472</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07672337165805462</v>
+                  <v>0.01628372863659878</v>
                 </pt>
               </numCache>
             </numRef>
@@ -415,16 +416,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.001405226928955427</v>
+                  <v>3.468398553143536e-05</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.02942817218489683</v>
+                  <v>0.03316928101246092</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.05357099943360602</v>
+                  <v>0.06015822264993204</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.004878736261193315</v>
+                  <v>0.0002514061254834494</v>
                 </pt>
               </numCache>
             </numRef>
@@ -713,16 +714,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>831</v>
+                  <v>837</v>
                 </pt>
                 <pt idx="1">
-                  <v>156</v>
+                  <v>190</v>
                 </pt>
                 <pt idx="2">
-                  <v>726</v>
+                  <v>730</v>
                 </pt>
                 <pt idx="3">
-                  <v>638</v>
+                  <v>672</v>
                 </pt>
               </numCache>
             </numRef>
@@ -981,16 +982,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.7034105610472037</v>
+                  <v>0.6429271177632763</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4857489780797286</v>
+                  <v>0.4217477082701607</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.689985951100429</v>
+                  <v>0.6944587792345889</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4826937646163955</v>
+                  <v>0.4213303365434473</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1059,16 +1060,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.01000353919999969</v>
+                  <v>0.01751245505798328</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.2915546098365783</v>
+                  <v>0.2351100652553536</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.3369639991084554</v>
+                  <v>0.4017264052114294</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07248611768846913</v>
+                  <v>0.01911508870543826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1137,16 +1138,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.0006481067392148098</v>
+                  <v>3.951512681599327e-05</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.03195869153478385</v>
+                  <v>0.03816776404796612</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03594404690413869</v>
+                  <v>0.05160273053714692</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.004491407635493619</v>
+                  <v>0.0005927870020837042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1450,16 +1451,16 @@
                 <formatCode>0.00</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.2768974975665393</v>
+                  <v>0.2704205410537546</v>
                 </pt>
                 <pt idx="1">
-                  <v>2.232788456970185</v>
+                  <v>1.939102438952502</v>
                 </pt>
                 <pt idx="2">
-                  <v>2.103168176023005</v>
+                  <v>3.340433867216402</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.24752070222765</v>
+                  <v>0.6073397922275536</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1726,16 +1727,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.3522795434954237</v>
+                  <v>0.1576378526128365</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.1652388736109124</v>
+                  <v>0.131884100015417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.2139687299908324</v>
+                  <v>0.1626388306951125</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2315222428534683</v>
+                  <v>0.08958206691129199</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1825,16 +1826,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.1898727299200015</v>
+                  <v>0.07918671106024776</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.06082660013882832</v>
+                  <v>0.06264408092673843</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1097640101528631</v>
+                  <v>0.07473394807781714</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.126858330116469</v>
+                  <v>0.05580386329707676</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2011,29 +2012,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -2123,16 +2101,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>23</v>
+                  <v>25</v>
                 </pt>
                 <pt idx="1">
-                  <v>149</v>
+                  <v>175</v>
                 </pt>
                 <pt idx="2">
-                  <v>177</v>
+                  <v>267</v>
                 </pt>
                 <pt idx="3">
-                  <v>41</v>
+                  <v>45</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2220,16 +2198,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>52</v>
+                  <v>62</v>
                 </pt>
                 <pt idx="1">
-                  <v>338</v>
+                  <v>400</v>
                 </pt>
                 <pt idx="2">
-                  <v>309</v>
+                  <v>449</v>
                 </pt>
                 <pt idx="3">
-                  <v>100</v>
+                  <v>104</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2526,16 +2504,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>2158</v>
+                  <v>2490</v>
                 </pt>
                 <pt idx="1">
-                  <v>924</v>
+                  <v>1298</v>
                 </pt>
                 <pt idx="2">
-                  <v>1787</v>
+                  <v>2131</v>
                 </pt>
                 <pt idx="3">
-                  <v>1924</v>
+                  <v>2278</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2852,16 +2830,16 @@
                 <formatCode>0.00</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.2549100638625644</v>
+                  <v>0.269627548322711</v>
                 </pt>
                 <pt idx="1">
-                  <v>2.187825456543811</v>
+                  <v>1.679508122943837</v>
                 </pt>
                 <pt idx="2">
-                  <v>2.476544251249122</v>
+                  <v>3.67422185094566</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.121065741251801</v>
+                  <v>0.4845806842019226</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3128,16 +3106,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.3406548386009354</v>
+                  <v>0.1400759982601577</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.1704819833980598</v>
+                  <v>0.1293986742640905</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1674861737187504</v>
+                  <v>0.1417468333889156</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2380581631984277</v>
+                  <v>0.07107245202441487</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3227,16 +3205,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.1812572180742107</v>
+                  <v>0.06982011084251979</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.06284839139865685</v>
+                  <v>0.0642192425518946</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.08989096535174623</v>
+                  <v>0.06450392713118801</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1338877863766975</v>
+                  <v>0.04199272386855275</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3413,29 +3391,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -3525,16 +3480,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>15</v>
+                  <v>17</v>
                 </pt>
                 <pt idx="1">
-                  <v>105</v>
+                  <v>123</v>
                 </pt>
                 <pt idx="2">
-                  <v>156</v>
+                  <v>246</v>
                 </pt>
                 <pt idx="3">
-                  <v>20</v>
+                  <v>24</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3622,16 +3577,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>28</v>
+                  <v>38</v>
                 </pt>
                 <pt idx="1">
-                  <v>246</v>
+                  <v>294</v>
                 </pt>
                 <pt idx="2">
-                  <v>269</v>
+                  <v>409</v>
                 </pt>
                 <pt idx="3">
-                  <v>46</v>
+                  <v>50</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3920,16 +3875,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>1327</v>
+                  <v>1653</v>
                 </pt>
                 <pt idx="1">
-                  <v>768</v>
+                  <v>1108</v>
                 </pt>
                 <pt idx="2">
-                  <v>1061</v>
+                  <v>1401</v>
                 </pt>
                 <pt idx="3">
-                  <v>1286</v>
+                  <v>1606</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4188,16 +4143,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.7058081217948181</v>
+                  <v>0.7654720358695934</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5857745062370062</v>
+                  <v>0.662933716205645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.6992743409285055</v>
+                  <v>0.6708456283680602</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.603594025291276</v>
+                  <v>0.7136387299414712</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4266,16 +4221,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.02119438956013448</v>
+                  <v>0.01689603759577047</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4545638004591129</v>
+                  <v>0.5046885379937629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186844032709886</v>
+                  <v>0.1601886425839215</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.06301813624000326</v>
+                  <v>0.02005310844192082</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4344,16 +4299,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>4.501953213410244e-05</v>
+                  <v>3.588929538751789e-05</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.02924597723925848</v>
+                  <v>0.05225995387971739</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.009979084071230939</v>
+                  <v>0.00855545616532145</v>
                 </pt>
                 <pt idx="3">
-                  <v>5.419711362805991e-05</v>
+                  <v>1.724615581589809e-05</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4657,16 +4612,16 @@
                 <formatCode>0.00</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.5562472450729039</v>
+                  <v>0.4779139389930676</v>
                 </pt>
                 <pt idx="1">
-                  <v>2.069004483482693</v>
+                  <v>2.702217010564693</v>
                 </pt>
                 <pt idx="2">
-                  <v>1.340263088313063</v>
+                  <v>1.149059575028346</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.5830882352941177</v>
+                  <v>0.7105224890745253</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4933,16 +4888,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.3825335129061243</v>
+                  <v>0.440225058120316</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.1313423607501732</v>
+                  <v>0.1278670149873145</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.322667875207923</v>
+                  <v>0.2766356954800437</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.3119893587869931</v>
+                  <v>0.1797296841899439</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5032,16 +4987,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.2292861748104591</v>
+                  <v>0.2503199735415012</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.05141610252079001</v>
+                  <v>0.05339151500317135</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1569428967083105</v>
+                  <v>0.1345532379186476</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1259590336134454</v>
+                  <v>0.1205326576389925</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5218,29 +5173,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -5333,7 +5265,7 @@
                   <v>8</v>
                 </pt>
                 <pt idx="1">
-                  <v>49</v>
+                  <v>57</v>
                 </pt>
                 <pt idx="2">
                   <v>14</v>
@@ -5430,7 +5362,7 @@
                   <v>25</v>
                 </pt>
                 <pt idx="1">
-                  <v>101</v>
+                  <v>115</v>
                 </pt>
                 <pt idx="2">
                   <v>25</v>
@@ -6296,10 +6228,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A5:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6389,37 +6321,37 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6335271936241349</v>
+        <v>0.594484635607165</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01788662688329275</v>
+        <v>0.01304446735597754</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>3.468398553143536e-05</v>
+        <v>1.029680820464487e-05</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1371307833008893</v>
+        <v>0.1454763262924515</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.1400759982601577</v>
+        <v>0.1744756869834843</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.06982011084251979</v>
+        <v>0.06010284540637306</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.269627548322711</v>
+        <v>0.2769206784083049</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" t="n">
-        <v>1653</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="3">
@@ -6429,37 +6361,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.3769474335128222</v>
+        <v>0.4010325011729786</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.1891935260507964</v>
+        <v>0.2010644991164097</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03316928101246092</v>
+        <v>0.03303359745508681</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.2875577504696017</v>
+        <v>0.3095906182333236</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1293986742640905</v>
+        <v>0.1400290420560689</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.0642192425518946</v>
+        <v>0.06440532981931868</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4183673469387755</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>1.679508122943837</v>
+        <v>1.705842974470176</v>
       </c>
       <c r="K3" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L3" t="n">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="M3" t="n">
-        <v>1108</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4">
@@ -6469,43 +6401,43 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6992848603328756</v>
+        <v>0.6863231744760971</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.4513679698655472</v>
+        <v>0.434921051947387</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.06015822264993204</v>
+        <v>0.05600950118699412</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.6058997157815537</v>
+        <v>0.5936862815887483</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1417468333889156</v>
+        <v>0.1346956944338242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06450392713118801</v>
+        <v>0.0640170656771703</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6014669926650367</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>3.67422185094566</v>
+        <v>3.619445762182684</v>
       </c>
       <c r="K4" t="n">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L4" t="n">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="M4" t="n">
-        <v>1401</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4 16</t>
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>0416</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -6514,113 +6446,116 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.3807338378596957</v>
+        <v>0.411887440389594</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.01628372863659878</v>
+        <v>0.01357490023404367</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0002514061254834494</v>
+        <v>9.242872260420934e-05</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1669197234786408</v>
+        <v>0.1815146042200885</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07107245202441487</v>
+        <v>0.1216148720677996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04199272386855275</v>
+        <v>0.08879144259873263</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.48</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.4845806842019226</v>
+        <v>0.5133017221330598</v>
       </c>
       <c r="K5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" t="n">
-        <v>1606</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4 19</t>
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>0419</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4 24</t>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>0424</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4 29</t>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>0429</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5 04</t>
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>0504</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5 13</t>
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>0513</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5 17</t>
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>0517</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5 24</t>
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>0524</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5 27</t>
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>0527</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5 31</t>
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>0531</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6 07</t>
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>0607</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>0607</t>
+      <c r="A16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0610</t>
         </is>
       </c>
     </row>
@@ -6636,10 +6571,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6740,28 +6675,28 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7654720358695934</v>
+        <v>0.7706051358695714</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01689603759577047</v>
+        <v>0.003610264443540699</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>3.588929538751789e-05</v>
+        <v>7.668652860580745e-06</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.2372278298763161</v>
+        <v>0.1851512457000676</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.440225058120316</v>
+        <v>0.2568344141282726</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.2503199735415012</v>
+        <v>0.1305470028934831</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.32</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.4779139389930676</v>
+        <v>0.3301525510668948</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
@@ -6770,7 +6705,7 @@
         <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>837</v>
+        <v>929</v>
       </c>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="3" t="n"/>
@@ -6782,37 +6717,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.662933716205645</v>
+        <v>0.6834737300699958</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.5046885379937629</v>
+        <v>0.4773291377911935</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.05225995387971739</v>
+        <v>0.05133279331367949</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.51669721588939</v>
+        <v>0.5086163068065633</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1278670149873145</v>
+        <v>0.147203624223288</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.05339151500317135</v>
+        <v>0.06225653448904978</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4956521739130435</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>2.702217010564693</v>
+        <v>2.541307467768922</v>
       </c>
       <c r="K3" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="L3" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="M3" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="3" t="n"/>
@@ -6824,43 +6759,43 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6708456283680602</v>
+        <v>0.7499628663532663</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1601886425839215</v>
+        <v>0.2465028060337407</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.00855545616532145</v>
+        <v>0.01574397927445502</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.4528701069497241</v>
+        <v>0.4509318529057545</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2766356954800437</v>
+        <v>0.2066479530779363</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1345532379186476</v>
+        <v>0.1213484538696908</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>1.149059575028346</v>
+        <v>1.386058303580632</v>
       </c>
       <c r="K4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M4" t="n">
-        <v>730</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4 09</t>
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>0409</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -6869,28 +6804,28 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.7136387299414712</v>
+        <v>0.6378266528120909</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.02005310844192082</v>
+        <v>0.0154474824535028</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.724615581589809e-05</v>
+        <v>4.124080738584326e-06</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.3096543162768161</v>
+        <v>0.2779608147618474</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1797296841899439</v>
+        <v>0.1951527505671605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1205326576389925</v>
+        <v>0.09425780943541125</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.7105224890745253</v>
+        <v>0.6264292908656474</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
@@ -6899,83 +6834,83 @@
         <v>22</v>
       </c>
       <c r="M5" t="n">
-        <v>672</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4 26</t>
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>0426</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4 29</t>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>0429</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5 13</t>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>0513</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5 17</t>
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>0517</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5 20</t>
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>0520</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5 24</t>
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>0524</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5 27</t>
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>0527</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5 28</t>
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>0528</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5 31</t>
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>0531</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6 07</t>
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>0607</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>0607</t>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0610</t>
         </is>
       </c>
     </row>
@@ -6994,13 +6929,13 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="6" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.28515625" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
     <col width="10.42578125" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.5703125" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
@@ -7016,7 +6951,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Dates</t>
         </is>
@@ -7091,37 +7026,37 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6429271177632763</v>
+        <v>0.6675962348414883</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01751245505798328</v>
+        <v>0.008179394318012146</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>3.951512681599327e-05</v>
+        <v>1.004072894504747e-05</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1392872501416756</v>
+        <v>0.1554828258556717</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.1576378526128365</v>
+        <v>0.1877440445163765</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.07918671106024776</v>
+        <v>0.07755563969563672</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.40625</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.2704205410537546</v>
+        <v>0.2775658751857901</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M2" t="n">
-        <v>2490</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="3">
@@ -7131,37 +7066,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4217477082701607</v>
+        <v>0.4714389568322802</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2351100652553536</v>
+        <v>0.2639441015771704</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03816776404796612</v>
+        <v>0.03892920562794833</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3347033772363641</v>
+        <v>0.3675687952701847</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.131884100015417</v>
+        <v>0.1445483216891028</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06264408092673843</v>
+        <v>0.06485600064806882</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4375</v>
+        <v>0.4372294372294372</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>1.939102438952502</v>
+        <v>1.981470237029721</v>
       </c>
       <c r="K3" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="M3" t="n">
-        <v>1298</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="4">
@@ -7171,43 +7106,43 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6944587792345889</v>
+        <v>0.6926983983709532</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.4017264052114294</v>
+        <v>0.3834694108288039</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.05160273053714692</v>
+        <v>0.0461496049579876</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5841382329294302</v>
+        <v>0.5630900645243636</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1626388306951125</v>
+        <v>0.1552219311853713</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07473394807781714</v>
+        <v>0.07687044565597864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5946547884187082</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>3.340433867216402</v>
+        <v>3.080202480388297</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="L4" t="n">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="M4" t="n">
-        <v>2131</v>
+        <v>2249</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4 09</t>
+    <row r="5" ht="14.25" customHeight="1" s="7">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>0409</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -7216,141 +7151,141 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4213303365434473</v>
+        <v>0.4763321346173789</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.01911508870543826</v>
+        <v>0.0154460354821753</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0005927870020837042</v>
+        <v>0.0002371148008334817</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2021361220856326</v>
+        <v>0.2188544488342531</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08958206691129199</v>
+        <v>0.1396328267645168</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05580386329707676</v>
+        <v>0.0841215453188307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4326923076923077</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0.6073397922275536</v>
+        <v>0.5849359168910214</v>
       </c>
       <c r="K5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M5" t="n">
-        <v>2278</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4 16</t>
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>0416</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4 19</t>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>0419</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4 24</t>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>0424</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4 26</t>
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>0426</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4 29</t>
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>0429</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5 04</t>
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>0504</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5 13</t>
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>0513</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5 17</t>
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>0517</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5 20</t>
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>0520</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>5 24</t>
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>0524</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>5 27</t>
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>0527</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>5 28</t>
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>0528</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>5 31</t>
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>0531</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6 07</t>
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>0607</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0607</t>
+          <t>0610</t>
         </is>
       </c>
     </row>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -6228,7 +6228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A5:A15"/>
@@ -6321,28 +6321,28 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.594484635607165</v>
+        <v>0.645204648227767</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01304446735597754</v>
+        <v>0.007329144784146707</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>1.029680820464487e-05</v>
+        <v>1.942794000876391e-06</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1454763262924515</v>
+        <v>0.1296747785457456</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.1744756869834843</v>
+        <v>0.249542582449714</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.06010284540637306</v>
+        <v>0.1622458198879949</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.45</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.2769206784083049</v>
+        <v>0.2388529581902462</v>
       </c>
       <c r="K2" t="n">
         <v>18</v>
@@ -6351,7 +6351,7 @@
         <v>40</v>
       </c>
       <c r="M2" t="n">
-        <v>1743</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="3">
@@ -6361,37 +6361,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4010325011729786</v>
+        <v>0.4300505199435792</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2010644991164097</v>
+        <v>0.2281084263861259</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03303359745508681</v>
+        <v>0.0316081092227066</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3095906182333236</v>
+        <v>0.3179896833879428</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1400290420560689</v>
+        <v>0.1388407255571495</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06440532981931868</v>
+        <v>0.06032323889020135</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4177215189873418</v>
+        <v>0.4043126684636119</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>1.705842974470176</v>
+        <v>1.581935346024184</v>
       </c>
       <c r="K3" t="n">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="M3" t="n">
-        <v>1200</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>0.0640170656771703</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.6004464285714286</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>3.619445762182684</v>
+        <v>3.368096367585157</v>
       </c>
       <c r="K4" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L4" t="n">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="M4" t="n">
         <v>1467</v>
@@ -6446,22 +6446,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.411887440389594</v>
+        <v>0.5594428163356928</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.01357490023404367</v>
+        <v>0.03056133391302897</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>9.242872260420934e-05</v>
+        <v>0.003983292006276569</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1815146042200885</v>
+        <v>0.2318476470894207</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1216148720677996</v>
+        <v>0.1885178221016955</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08879144259873263</v>
+        <v>0.08974962157423944</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.4807692307692308</v>
@@ -6476,7 +6476,7 @@
         <v>52</v>
       </c>
       <c r="M5" t="n">
-        <v>1692</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="6">
@@ -6556,6 +6556,13 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>0610</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0614</t>
         </is>
       </c>
     </row>
@@ -6927,7 +6934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -7026,28 +7033,28 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6675962348414883</v>
+        <v>0.659873555211251</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.008179394318012146</v>
+        <v>0.006591022187935497</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>1.004072894504747e-05</v>
+        <v>2.722909544419653e-06</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1554828258556717</v>
+        <v>0.1339953426049279</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.1877440445163765</v>
+        <v>0.2455068595298648</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.07755563969563672</v>
+        <v>0.1565913599174608</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.40625</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.2775658751857901</v>
+        <v>0.2428992203893668</v>
       </c>
       <c r="K2" t="n">
         <v>26</v>
@@ -7056,7 +7063,7 @@
         <v>64</v>
       </c>
       <c r="M2" t="n">
-        <v>2672</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="3">
@@ -7066,37 +7073,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4714389568322802</v>
+        <v>0.4725297268115818</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2639441015771704</v>
+        <v>0.2657990614544335</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03892920562794833</v>
+        <v>0.03601034985001821</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3675687952701847</v>
+        <v>0.3563675426649029</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1445483216891028</v>
+        <v>0.142236223153702</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06485600064806882</v>
+        <v>0.06153073918829999</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4372294372294372</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>1.981470237029721</v>
+        <v>1.800299173435032</v>
       </c>
       <c r="K3" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="L3" t="n">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="M3" t="n">
-        <v>1470</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="4">
@@ -7124,16 +7131,16 @@
         <v>0.07687044565597864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5896414342629482</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>3.080202480388297</v>
+        <v>2.922756999047872</v>
       </c>
       <c r="K4" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="M4" t="n">
         <v>2249</v>
@@ -7151,22 +7158,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4763321346173789</v>
+        <v>0.5557154303916136</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.0154460354821753</v>
+        <v>0.02820419593806748</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0002371148008334817</v>
+        <v>0.003344702193076554</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2188544488342531</v>
+        <v>0.2359133494309207</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1396328267645168</v>
+        <v>0.1829346873345534</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0841215453188307</v>
+        <v>0.08795699607801985</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.4339622641509434</v>
@@ -7181,7 +7188,7 @@
         <v>106</v>
       </c>
       <c r="M5" t="n">
-        <v>2434</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="6">
@@ -7286,6 +7293,13 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>0610</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0614</t>
         </is>
       </c>
     </row>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -6229,7 +6229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -6322,28 +6322,28 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6465036152649765</v>
+        <v>0.6959720131993448</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.007132408798530627</v>
+        <v>0.006206428687232145</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>9.34496448472749e-06</v>
+        <v>1.703509150861782e-06</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1292506536597569</v>
+        <v>0.08734256707339319</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2527296000968023</v>
+        <v>0.2652163333509796</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1652781493413333</v>
+        <v>0.1912173709736806</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.4857142857142857</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.2376426781332142</v>
+        <v>0.1496223632013672</v>
       </c>
       <c r="K2" t="n">
         <v>17</v>
@@ -6352,7 +6352,7 @@
         <v>35</v>
       </c>
       <c r="M2" t="n">
-        <v>1752</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="3">
@@ -6362,37 +6362,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4470328275804636</v>
+        <v>0.4435497058660023</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2415454031534393</v>
+        <v>0.2481628510655228</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03094476711192846</v>
+        <v>0.03442928158875453</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3299846586136762</v>
+        <v>0.3405531798349882</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1456670695366822</v>
+        <v>0.139285062511429</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.05991712864834376</v>
+        <v>0.05619255038101428</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4063400576368876</v>
+        <v>0.4135977337110481</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>1.571390685113071</v>
+        <v>1.411547480362799</v>
       </c>
       <c r="K3" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L3" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M3" t="n">
-        <v>1234</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="4">
@@ -6402,37 +6402,37 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6837827010109475</v>
+        <v>0.7282133719744717</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.4288748065717619</v>
+        <v>0.4605150587184641</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.05338601315756892</v>
+        <v>0.04637092628648444</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5908240039221629</v>
+        <v>0.6221758259347654</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1409262671480445</v>
+        <v>0.1883519870754343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07128024422166591</v>
+        <v>0.07544923078414312</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5867768595041323</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>2.865046216548138</v>
+        <v>3.334507310967212</v>
       </c>
       <c r="K4" t="n">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="M4" t="n">
-        <v>1297</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5">
@@ -6443,37 +6443,37 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.5620961431918969</v>
+        <v>0.5305240357979742</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.03147697589823854</v>
+        <v>0.04311924397455964</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.004074345852215664</v>
+        <v>0.001018586463053916</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2340016936845407</v>
+        <v>0.2025004234211352</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1913819307394927</v>
+        <v>0.2030954826848732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09109465708304706</v>
+        <v>0.09252366427076178</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.46</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.5322905748098101</v>
+        <v>0.4555726437024525</v>
       </c>
       <c r="K5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M5" t="n">
-        <v>1731</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="6">
@@ -6597,6 +6597,13 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>061421</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>061721</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -7107,28 +7114,28 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7077049208540338</v>
+        <v>0.7071925478258704</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.002459718583041499</v>
+        <v>0.005032978687034484</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>3.607793441305964e-06</v>
+        <v>9.854620973937587e-07</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1652907139290767</v>
+        <v>0.1018432968602571</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2903924452350017</v>
+        <v>0.2741164549484496</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1974644735939394</v>
+        <v>0.1971268701020483</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.423728813559322</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.2416669445706215</v>
+        <v>0.1605016191188272</v>
       </c>
       <c r="K2" t="n">
         <v>25</v>
@@ -7137,7 +7144,7 @@
         <v>59</v>
       </c>
       <c r="M2" t="n">
-        <v>2773</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="3">
@@ -7147,37 +7154,37 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.5318740378531619</v>
+        <v>0.5255084133529208</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.336590009087207</v>
+        <v>0.3371055882443666</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03771944684475664</v>
+        <v>0.0399462694824199</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.4274499963545619</v>
+        <v>0.4307282872854952</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1758496218230844</v>
+        <v>0.1698465937249883</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06830852067050319</v>
+        <v>0.06522188810582427</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.4308943089430894</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>1.758504393133074</v>
+        <v>1.633856846881481</v>
       </c>
       <c r="K3" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M3" t="n">
-        <v>1582</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="4">
@@ -7187,37 +7194,37 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6912249242620896</v>
+        <v>0.7295798446921653</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3631534190573392</v>
+        <v>0.4100959414284264</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.04109115598786309</v>
+        <v>0.03810867568970997</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.549527524076327</v>
+        <v>0.5894571028492015</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1682414400664125</v>
+        <v>0.2038279767314744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08676942734582946</v>
+        <v>0.08628038963718312</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5810185185185185</v>
+        <v>0.5780669144981413</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>2.419511496348463</v>
+        <v>2.969646509920496</v>
       </c>
       <c r="K4" t="n">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="L4" t="n">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="M4" t="n">
-        <v>2077</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" s="10">
@@ -7227,39 +7234,91 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.5585828158357594</v>
+        <v>0.5357976883736968</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.03018954401561896</v>
+        <v>0.04011697865206446</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.003503854320521666</v>
+        <v>0.001434649013126981</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2384958366353123</v>
+        <v>0.2110376653939861</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1884357107669819</v>
+        <v>0.1993988736998666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09060169490403432</v>
+        <v>0.09201801681110067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.5834596026758927</v>
+        <v>0.4928338530641451</v>
       </c>
       <c r="K5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L5" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M5" t="n">
-        <v>2456</v>
-      </c>
-    </row>
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
@@ -7383,6 +7442,13 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>061521</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>061721</t>
         </is>
       </c>
     </row>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -260,16 +260,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.6977407019381875</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4273166268894192</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.6935916552667577</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4247692716640085</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -338,16 +338,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.02199423782084861</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.2370628480509149</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.4122879616963065</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.05547687400318978</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -416,16 +416,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.00366663174436878</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.03262330946698486</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.04446169630642956</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.006923817118553958</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -690,16 +690,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>8</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>71</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>20</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>11</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -787,16 +787,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>25</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>148</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>39</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>22</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1085,16 +1085,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>1021</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>348</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>780</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>725</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1283,29 +1283,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -1399,16 +1376,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.5334857982370225</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.3398132183908046</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.5516551282051284</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.426671724137931</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1636,16 +1613,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.7293474402730376</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4834236760124611</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.694919714540589</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4766204911742133</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1714,16 +1691,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.0237358361774744</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.2972548286604362</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.3541101694915254</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.05375287797390637</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1792,16 +1769,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.005801160409556313</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.03801090342679129</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03479768064228368</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.00690230237912509</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2094,16 +2071,16 @@
                 <formatCode>0.00</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.244681103337609</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.796713943224349</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>2.366905220161249</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4605772959808836</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2370,16 +2347,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.2850150170648466</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.1556093457943925</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.2215887600356823</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1826277820414429</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2469,16 +2446,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.1538648464163821</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.06362367601246106</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1076052631578948</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.08861972371450498</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2744,16 +2721,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>25</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>212</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>311</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>46</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2841,16 +2818,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>59</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>492</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>538</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>110</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3147,16 +3124,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>2930</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>1605</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>2242</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>2606</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3345,29 +3322,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -3461,16 +3415,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.5389436860068259</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.4274641744548284</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.4937872435325601</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.5037041442824253</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3756,16 +3710,16 @@
                 <formatCode>0.00</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.225520266065722</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>1.615846900381764</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>3.089958663338651</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4674519850438521</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4032,16 +3986,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.2561629125196437</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.1439729514717581</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.212686730506156</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1525699096225413</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4131,16 +4085,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.1398768988999476</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.06054335719968178</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.09564090287277704</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07853960659223817</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4406,16 +4360,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>17</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>146</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>284</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>25</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4503,16 +4457,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>35</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>353</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>484</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>56</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4801,16 +4755,16 @@
                 <formatCode>General</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>1909</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>1257</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>1462</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>1881</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4999,29 +4953,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -5126,16 +5057,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.5314876898899947</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.410988862370724</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.4468994528043774</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.5104885699096225</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5363,16 +5294,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.7864103819784523</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.6838390804597702</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.697470512820513</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.6110648275862069</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5441,16 +5372,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.02728501469147893</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.5116293103448276</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.2461217948717949</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.04959172413793104</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5519,16 +5450,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.009785602350636623</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.05459166666666667</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.01795884615384616</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.006891448275862072</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5832,16 +5763,16 @@
                 <formatCode>0.00</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.2939985925832188</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>2.336307330297411</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.7831644753010567</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.4617729046541815</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -6108,16 +6039,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.339001958863859</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.1927327586206896</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.2384794871794874</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2605006896551726</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -6207,16 +6138,16 @@
                 <formatCode>0.0%</formatCode>
                 <ptCount val="4"/>
                 <pt idx="0">
-                  <v>0.1802859941234085</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.07469540229885058</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.1297179487179488</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.1146882758620689</v>
+                  <v>0</v>
                 </pt>
               </numCache>
             </numRef>
@@ -7160,8 +7091,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A17:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7263,7 +7194,7 @@
         <v>0.02101451451451451</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.003503303303303304</v>
+        <v>0.002506356356356356</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.1307057057057058</v>
@@ -7275,7 +7206,7 @@
         <v>0.1386351351351351</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5312432432432432</v>
+        <v>0.5405085085085085</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4857142857142857</v>
@@ -7306,7 +7237,7 @@
         <v>0.239624025974026</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.04285480519480517</v>
+        <v>0.01948090909090908</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0.3373668831168831</v>
@@ -7318,7 +7249,7 @@
         <v>0.06301623376623376</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4370857142857143</v>
+        <v>0.4559844155844156</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>0.4004683840749415</v>
@@ -7349,7 +7280,7 @@
         <v>0.3873008083140878</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.04792840646651271</v>
+        <v>0.01673152424942263</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.5510814087759814</v>
@@ -7361,7 +7292,7 @@
         <v>0.08883775981524253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4280525404157042</v>
+        <v>0.4437938799076212</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>0.5795454545454546</v>
@@ -7393,7 +7324,7 @@
         <v>0.0492467289719626</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.006085841121495325</v>
+        <v>0.003740841121495326</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0.1955275700934578</v>
@@ -7405,7 +7336,7 @@
         <v>0.08307336448598131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5227742990654205</v>
+        <v>0.5349238317757009</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>0.4655172413793103</v>
@@ -7575,8 +7506,8 @@
   </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="C2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7682,13 +7613,13 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7864103819784523</v>
+        <v>0.7883692458374142</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>0.02728501469147893</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.009785602350636623</v>
+        <v>0.008801273261508322</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.1892154750244857</v>
@@ -7727,25 +7658,25 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.6838390804597702</v>
+        <v>0.686712643678161</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.5116293103448276</v>
+        <v>0.5145028735632184</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.05459166666666667</v>
+        <v>0.03161091954022989</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0.5592040229885059</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1927327586206896</v>
+        <v>0.1984798850574713</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>0.07469540229885058</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.3398132183908046</v>
+        <v>0.3642385057471265</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>0.4797297297297297</v>
@@ -7778,7 +7709,7 @@
         <v>0.2461217948717949</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01795884615384616</v>
+        <v>0.006422948717948717</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.4680371794871796</v>
@@ -7790,7 +7721,7 @@
         <v>0.1297179487179488</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5516551282051284</v>
+        <v>0.554219230769231</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>0.5128205128205128</v>
@@ -7834,7 +7765,7 @@
         <v>0.1146882758620689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.426671724137931</v>
+        <v>0.4514993103448275</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>0.5</v>
@@ -7986,10 +7917,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8096,7 +8027,7 @@
         <v>0.02303610467042067</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.005630142431268631</v>
+        <v>0.004632991056641274</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.1505869493209673</v>
@@ -8139,7 +8070,7 @@
         <v>0.2903215042372882</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.04554894067796611</v>
+        <v>0.02171530720338985</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0.3824841101694917</v>
@@ -8182,7 +8113,7 @@
         <v>0.3431349522292994</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0382266719745223</v>
+        <v>0.01353049363057325</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.5260991242038218</v>
@@ -8225,7 +8156,7 @@
         <v>0.04925514834205934</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.006278324607329838</v>
+        <v>0.004531343804537522</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>0.2164701570680628</v>
@@ -8255,141 +8186,141 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>040921</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>041621</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>041921</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>042421</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>042621</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>042921</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>050421</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>051321</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>051721</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>052021</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>052421</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>052721</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>052821</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>053121</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>060721</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>061021</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>061421</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>061521</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>061721</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>062121</t>
         </is>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -7089,7 +7089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A17:A24"/>
@@ -7188,31 +7188,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6957032032032031</v>
+        <v>0.6877283210332104</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.02101451451451451</v>
+        <v>0.01936669741697417</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.002506356356356356</v>
+        <v>0.002309824723247232</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1307057057057058</v>
+        <v>0.1327675276752769</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2542402402402401</v>
+        <v>0.2564169741697416</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1386351351351351</v>
+        <v>0.1411729704797048</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5405085085085085</v>
+        <v>0.5454870848708487</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4857142857142857</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.222601695655387</v>
+        <v>0.2271024852027045</v>
       </c>
       <c r="L2" t="n">
         <v>17</v>
@@ -7221,7 +7221,7 @@
         <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>1998</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="3">
@@ -7231,40 +7231,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4292798701298701</v>
+        <v>0.4345570051049347</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.239624025974026</v>
+        <v>0.2518145207033466</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.01948090909090908</v>
+        <v>0.01815519001701644</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3373668831168831</v>
+        <v>0.3514872376630743</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1421402597402597</v>
+        <v>0.1474350538854226</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06301623376623376</v>
+        <v>0.0675677821894498</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4559844155844156</v>
+        <v>0.4662319909245604</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4004683840749415</v>
+        <v>0.3972055888223553</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>1.789350359597323</v>
+        <v>1.910861913658467</v>
       </c>
       <c r="L3" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="M3" t="n">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="N3" t="n">
-        <v>1540</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="4">
@@ -7274,40 +7274,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6749486143187067</v>
+        <v>0.6701385869565217</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3873008083140878</v>
+        <v>0.3835853260869566</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01673152424942263</v>
+        <v>0.01629532608695652</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5510814087759814</v>
+        <v>0.5503135869565217</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2043175519630485</v>
+        <v>0.2015402173913043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08883775981524253</v>
+        <v>0.08743858695652176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4437938799076212</v>
+        <v>0.4419277173913043</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.5845323741007195</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.923163721594173</v>
+        <v>2.92063019880495</v>
       </c>
       <c r="L4" t="n">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="M4" t="n">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="N4" t="n">
-        <v>1732</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="5">
@@ -7318,31 +7318,31 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4275808411214954</v>
+        <v>0.4320827261037292</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.0492467289719626</v>
+        <v>0.04517273896270894</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.003740841121495326</v>
+        <v>0.003431375910844405</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1955275700934578</v>
+        <v>0.1937466780968709</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1569789719626169</v>
+        <v>0.1602897556793829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08307336448598131</v>
+        <v>0.08389455636519502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5349238317757009</v>
+        <v>0.5298838405486498</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>0.4655172413793103</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4689706466670495</v>
+        <v>0.4640922348338988</v>
       </c>
       <c r="L5" t="n">
         <v>27</v>
@@ -7351,7 +7351,7 @@
         <v>58</v>
       </c>
       <c r="N5" t="n">
-        <v>2140</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="6">
@@ -7489,6 +7489,13 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>062121</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>062421</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
@@ -8021,31 +8028,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7270672408082147</v>
+        <v>0.7199736594543744</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.02303610467042067</v>
+        <v>0.02180809031044215</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.004632991056641274</v>
+        <v>0.004386014424584511</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1505869493209673</v>
+        <v>0.1509288178112262</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2828920172242467</v>
+        <v>0.2828444653496396</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.152630672408082</v>
+        <v>0.1536099090624019</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5385621066578337</v>
+        <v>0.5420504860457824</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.423728813559322</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2421847077771429</v>
+        <v>0.2442005747190952</v>
       </c>
       <c r="L2" t="n">
         <v>25</v>
@@ -8054,7 +8061,7 @@
         <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>3019</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="3">
@@ -8064,40 +8071,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.476614936440678</v>
+        <v>0.4760217906205589</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2903215042372882</v>
+        <v>0.2951468498342019</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.02171530720338985</v>
+        <v>0.02037209853150167</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3824841101694917</v>
+        <v>0.3895106584557083</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1523702330508474</v>
+        <v>0.1557115111321648</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06517902542372882</v>
+        <v>0.0687517764092847</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4462812499999999</v>
+        <v>0.4558645191852202</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4187279151943463</v>
+        <v>0.4140625</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>1.911125995166886</v>
+        <v>1.999742244848451</v>
       </c>
       <c r="L3" t="n">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="M3" t="n">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="N3" t="n">
-        <v>1888</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="4">
@@ -8107,40 +8114,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6819227707006372</v>
+        <v>0.6782572519083973</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3431349522292994</v>
+        <v>0.3423461832061069</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01353049363057325</v>
+        <v>0.01335610687022901</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5260991242038218</v>
+        <v>0.5265896946564886</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2148614649681528</v>
+        <v>0.2124763358778625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1016285828025478</v>
+        <v>0.1001187022900764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4757527866242037</v>
+        <v>0.4731248091603052</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5721649484536082</v>
+        <v>0.5770491803278689</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.329618432962389</v>
+        <v>2.352305917405161</v>
       </c>
       <c r="L4" t="n">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="M4" t="n">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="N4" t="n">
-        <v>2512</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" s="9">
@@ -8150,31 +8157,31 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4740331588132635</v>
+        <v>0.4745359712230216</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.04925514834205934</v>
+        <v>0.04614650098103335</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.004531343804537522</v>
+        <v>0.004245356442119032</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2164701570680628</v>
+        <v>0.2137897318508829</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1832038394415358</v>
+        <v>0.1840745585349902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09109493891797557</v>
+        <v>0.09121517331589275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5134942408376965</v>
+        <v>0.511001635055592</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.462333135541425</v>
+        <v>0.4590302267253704</v>
       </c>
       <c r="L5" t="n">
         <v>48</v>
@@ -8183,9 +8190,64 @@
         <v>112</v>
       </c>
       <c r="N5" t="n">
-        <v>2865</v>
-      </c>
-    </row>
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
@@ -8323,6 +8385,13 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>062121</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>062421</t>
         </is>
       </c>
     </row>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -7089,7 +7089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A17:A24"/>
@@ -7188,25 +7188,25 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6877283210332104</v>
+        <v>0.6774101001306052</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01936669741697417</v>
+        <v>0.01827905964301263</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.002309824723247232</v>
+        <v>0.002180104484109708</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1327675276752769</v>
+        <v>0.1350269917283415</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2564169741697416</v>
+        <v>0.2537540269917282</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1411729704797048</v>
+        <v>0.1384675663909447</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5454870848708487</v>
+        <v>0.5397875489769265</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4857142857142857</v>
@@ -7221,7 +7221,7 @@
         <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>2168</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="3">
@@ -7231,25 +7231,25 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4345570051049347</v>
+        <v>0.4467027568922306</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2518145207033466</v>
+        <v>0.2635814536340852</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.01815519001701644</v>
+        <v>0.01704401002506265</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3514872376630743</v>
+        <v>0.3691067669172933</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1474350538854226</v>
+        <v>0.1538967418546366</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.0675677821894498</v>
+        <v>0.06819949874686716</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4662319909245604</v>
+        <v>0.4541107769423559</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>0.3972055888223553</v>
@@ -7264,7 +7264,7 @@
         <v>501</v>
       </c>
       <c r="N3" t="n">
-        <v>1763</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="4">
@@ -7496,6 +7496,13 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>062421</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>062821</t>
         </is>
       </c>
     </row>
@@ -7924,7 +7931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
@@ -8028,25 +8035,25 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7199736594543744</v>
+        <v>0.7115768535262207</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.02180809031044215</v>
+        <v>0.02096021699819169</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.004386014424584511</v>
+        <v>0.00421549125979506</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1509288178112262</v>
+        <v>0.1517869198312237</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2828444653496396</v>
+        <v>0.2799734779987946</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1536099090624019</v>
+        <v>0.1512534659433393</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5420504860457824</v>
+        <v>0.5382383966244726</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.423728813559322</v>
@@ -8061,7 +8068,7 @@
         <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>3189</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="3">
@@ -8071,25 +8078,25 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4760217906205589</v>
+        <v>0.4822577891591975</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2951468498342019</v>
+        <v>0.3008753734528383</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.02037209853150167</v>
+        <v>0.01920644472897995</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3895106584557083</v>
+        <v>0.4007481860862143</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1557115111321648</v>
+        <v>0.1603939393939393</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.0687517764092847</v>
+        <v>0.06917242851045668</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4558645191852202</v>
+        <v>0.4465702091335894</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>0.4140625</v>
@@ -8104,7 +8111,7 @@
         <v>640</v>
       </c>
       <c r="N3" t="n">
-        <v>2111</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="4">
@@ -8395,6 +8402,13 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>062821</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -7092,7 +7092,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A17:A24"/>
+      <selection activeCell="N5" sqref="C2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7212,7 +7212,7 @@
         <v>0.4857142857142857</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2271024852027045</v>
+        <v>0.2351276394947599</v>
       </c>
       <c r="L2" t="n">
         <v>17</v>
@@ -7252,16 +7252,16 @@
         <v>0.4541107769423559</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.3972055888223553</v>
+        <v>0.3863247863247863</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>1.910861913658467</v>
+        <v>2.056125089613974</v>
       </c>
       <c r="L3" t="n">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="M3" t="n">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="N3" t="n">
         <v>1995</v>
@@ -7274,40 +7274,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6701385869565217</v>
+        <v>0.661535409342039</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3835853260869566</v>
+        <v>0.3780954294324461</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01629532608695652</v>
+        <v>0.01756840783525867</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5503135869565217</v>
+        <v>0.5474018081366145</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2015402173913043</v>
+        <v>0.199813661476645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08743858695652176</v>
+        <v>0.08584831742842795</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4419277173913043</v>
+        <v>0.4376042189854343</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5845323741007195</v>
+        <v>0.5808080808080808</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.92063019880495</v>
+        <v>3.036858633930451</v>
       </c>
       <c r="L4" t="n">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="M4" t="n">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="N4" t="n">
-        <v>1840</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="5">
@@ -7318,40 +7318,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4320827261037292</v>
+        <v>0.4351504873294348</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.04517273896270894</v>
+        <v>0.04190097465886938</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.003431375910844405</v>
+        <v>0.00312101364522417</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1937466780968709</v>
+        <v>0.1920510721247563</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1602897556793829</v>
+        <v>0.1641528265107214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08389455636519502</v>
+        <v>0.08797426900584794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5298838405486498</v>
+        <v>0.5396627680311891</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4640922348338988</v>
+        <v>0.4653522039193535</v>
       </c>
       <c r="L5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M5" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>2333</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="6">
@@ -7521,7 +7521,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="C2:N5"/>
+      <selection activeCell="C2" sqref="C2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7931,10 +7931,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8059,7 +8059,7 @@
         <v>0.423728813559322</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2442005747190952</v>
+        <v>0.2490915107833618</v>
       </c>
       <c r="L2" t="n">
         <v>25</v>
@@ -8099,16 +8099,16 @@
         <v>0.4465702091335894</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4140625</v>
+        <v>0.4033149171270718</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>1.999742244848451</v>
+        <v>2.114629056284712</v>
       </c>
       <c r="L3" t="n">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M3" t="n">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="N3" t="n">
         <v>2343</v>
@@ -8121,40 +8121,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6782572519083973</v>
+        <v>0.6716333453626852</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3423461832061069</v>
+        <v>0.3406488632262721</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01335610687022901</v>
+        <v>0.01443099963911945</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5265896946564886</v>
+        <v>0.5257903284012992</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2124763358778625</v>
+        <v>0.2106398412125586</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1001187022900764</v>
+        <v>0.09828509563334528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4731248091603052</v>
+        <v>0.4683182966438109</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5770491803278689</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.352305917405161</v>
+        <v>2.448146015925599</v>
       </c>
       <c r="L4" t="n">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M4" t="n">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="N4" t="n">
-        <v>2620</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" s="9">
@@ -8164,246 +8164,191 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4745359712230216</v>
+        <v>0.4739340425531915</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.04614650098103335</v>
+        <v>0.04352705167173252</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.004245356442119032</v>
+        <v>0.003945987841945288</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2137897318508829</v>
+        <v>0.2110544072948328</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1840745585349902</v>
+        <v>0.1854091185410334</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09121517331589275</v>
+        <v>0.09387963525835867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.511001635055592</v>
+        <v>0.519957142857143</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4435483870967742</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4590302267253704</v>
+        <v>0.4608686680119891</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M5" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="N5" t="n">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>040921</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>041621</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>041921</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>042421</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>042621</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>042921</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>050421</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>051321</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>051721</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>052021</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>052421</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>052721</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>052821</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>053121</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>060721</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>061021</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>061421</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>061521</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>061721</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>062121</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>062421</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>062821</t>
         </is>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -7089,7 +7089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="C2:N5"/>
@@ -7188,31 +7188,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6774101001306052</v>
+        <v>0.67751845841785</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01827905964301263</v>
+        <v>0.01703326572008114</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.002180104484109708</v>
+        <v>0.002031521298174442</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1350269917283415</v>
+        <v>0.1338665314401625</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2537540269917282</v>
+        <v>0.2547249492900607</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1384675663909447</v>
+        <v>0.1419797160243408</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5397875489769265</v>
+        <v>0.5514563894523327</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4857142857142857</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2351276394947599</v>
+        <v>0.2320520032127641</v>
       </c>
       <c r="L2" t="n">
         <v>17</v>
@@ -7221,7 +7221,7 @@
         <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>2297</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="3">
@@ -7231,40 +7231,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4467027568922306</v>
+        <v>0.4482508068234209</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2635814536340852</v>
+        <v>0.2673052097740894</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.01704401002506265</v>
+        <v>0.01613397879207007</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3691067669172933</v>
+        <v>0.3759170124481329</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1538967418546366</v>
+        <v>0.1516588289534347</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06819949874686716</v>
+        <v>0.06641862609497463</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4541107769423559</v>
+        <v>0.4468819732595666</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.3863247863247863</v>
+        <v>0.3931357254290171</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.056125089613974</v>
+        <v>2.186394446187127</v>
       </c>
       <c r="L3" t="n">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M3" t="n">
-        <v>585</v>
+        <v>641</v>
       </c>
       <c r="N3" t="n">
-        <v>1995</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="4">
@@ -7274,40 +7274,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.661535409342039</v>
+        <v>0.6521097617935543</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3780954294324461</v>
+        <v>0.3684203643157404</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01756840783525867</v>
+        <v>0.0177387669313405</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5474018081366145</v>
+        <v>0.544991592713685</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.199813661476645</v>
+        <v>0.2012279308734237</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08584831742842795</v>
+        <v>0.08543858010275575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4376042189854343</v>
+        <v>0.4324474544605323</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5808080808080808</v>
+        <v>0.564945226917058</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>3.036858633930451</v>
+        <v>3.045486006611643</v>
       </c>
       <c r="L4" t="n">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="M4" t="n">
-        <v>594</v>
+        <v>639</v>
       </c>
       <c r="N4" t="n">
-        <v>1991</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="5">
@@ -7503,6 +7503,13 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>062821</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>070521</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:N5"/>
@@ -8035,31 +8042,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7115768535262207</v>
+        <v>0.7100068846815836</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.02096021699819169</v>
+        <v>0.0199500860585198</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.00421549125979506</v>
+        <v>0.004012335054503731</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1517869198312237</v>
+        <v>0.1501586345381526</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2799734779987946</v>
+        <v>0.2793964429145153</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1512534659433393</v>
+        <v>0.1531207687894434</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5382383966244726</v>
+        <v>0.5465642570281125</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.423728813559322</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2490915107833618</v>
+        <v>0.2462437271311516</v>
       </c>
       <c r="L2" t="n">
         <v>25</v>
@@ -8068,7 +8075,7 @@
         <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>3318</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="3">
@@ -8078,40 +8085,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4822577891591975</v>
+        <v>0.4811338895510527</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.3008753734528383</v>
+        <v>0.3015061581247518</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.01920644472897995</v>
+        <v>0.01827274533174415</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.4007481860862143</v>
+        <v>0.404429479539134</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1603939393939393</v>
+        <v>0.1580162892332141</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06917242851045668</v>
+        <v>0.06757052046086612</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4465702091335894</v>
+        <v>0.4408621374652364</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4033149171270718</v>
+        <v>0.4076923076923077</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.114629056284712</v>
+        <v>2.222843019020691</v>
       </c>
       <c r="L3" t="n">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="M3" t="n">
-        <v>724</v>
+        <v>780</v>
       </c>
       <c r="N3" t="n">
-        <v>2343</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="4">
@@ -8121,40 +8128,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6716333453626852</v>
+        <v>0.6642060938034922</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3406488632262721</v>
+        <v>0.3354803149606299</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01443099963911945</v>
+        <v>0.01471698048613489</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5257903284012992</v>
+        <v>0.5251335159192059</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2106398412125586</v>
+        <v>0.2111205066757959</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09828509563334528</v>
+        <v>0.09734611434440253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4683182966438109</v>
+        <v>0.4629613146182814</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.5598845598845599</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.448146015925599</v>
+        <v>2.484701338627126</v>
       </c>
       <c r="L4" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="M4" t="n">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="N4" t="n">
-        <v>2771</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" s="9">
@@ -8200,6 +8207,83 @@
         <v>3290</v>
       </c>
     </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
@@ -8351,6 +8435,13 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>062821</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>070521</t>
         </is>
       </c>
     </row>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -7089,7 +7089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="C2:N5"/>
@@ -7188,40 +7188,40 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.67751845841785</v>
+        <v>0.6807066921606121</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01703326572008114</v>
+        <v>0.01757284894837477</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.002031521298174442</v>
+        <v>0.003063709369024857</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1338665314401625</v>
+        <v>0.1353277246653922</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2547249492900607</v>
+        <v>0.2553877629063096</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1419797160243408</v>
+        <v>0.1395854684512428</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5514563894523327</v>
+        <v>0.5412302103250478</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2320520032127641</v>
+        <v>0.2349400336212097</v>
       </c>
       <c r="L2" t="n">
         <v>17</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" t="n">
-        <v>2465</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="3">
@@ -7231,40 +7231,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4482508068234209</v>
+        <v>0.446246923076923</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2673052097740894</v>
+        <v>0.27106</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.01613397879207007</v>
+        <v>0.02000215384615384</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3759170124481329</v>
+        <v>0.3790784615384616</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1516588289534347</v>
+        <v>0.1445561538461538</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06641862609497463</v>
+        <v>0.06734730769230769</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4468819732595666</v>
+        <v>0.4830103846153846</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.3931357254290171</v>
+        <v>0.4097693351424695</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.186394446187127</v>
+        <v>2.3677767514538</v>
       </c>
       <c r="L3" t="n">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="M3" t="n">
-        <v>641</v>
+        <v>737</v>
       </c>
       <c r="N3" t="n">
-        <v>2169</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="4">
@@ -7274,40 +7274,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6521097617935543</v>
+        <v>0.6250660828025477</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3684203643157404</v>
+        <v>0.3514323248407645</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0177387669313405</v>
+        <v>0.02267734872611465</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.544991592713685</v>
+        <v>0.5237281050955412</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2012279308734237</v>
+        <v>0.1834657643312102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08543858010275575</v>
+        <v>0.07877786624203824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4324474544605323</v>
+        <v>0.446325636942675</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.564945226917058</v>
+        <v>0.5732394366197183</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>3.045486006611643</v>
+        <v>2.923095358342169</v>
       </c>
       <c r="L4" t="n">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="M4" t="n">
-        <v>639</v>
+        <v>710</v>
       </c>
       <c r="N4" t="n">
-        <v>2141</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="5">
@@ -7318,40 +7318,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4351504873294348</v>
+        <v>0.4354239057239058</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.04190097465886938</v>
+        <v>0.0365121212121212</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.00312101364522417</v>
+        <v>0.002695420875420874</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1920510721247563</v>
+        <v>0.1858905723905723</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1641528265107214</v>
+        <v>0.1602882154882156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08797426900584794</v>
+        <v>0.08468585858585857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5396627680311891</v>
+        <v>0.5304498316498316</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4653522039193535</v>
+        <v>0.4513799336879264</v>
       </c>
       <c r="L5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="n">
-        <v>2565</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="6">
@@ -7510,6 +7510,20 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>070521</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>070821</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>071221</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:N5"/>
@@ -8042,40 +8056,40 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7100068846815836</v>
+        <v>0.7109595709570958</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0199500860585198</v>
+        <v>0.02021782178217822</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.004012335054503731</v>
+        <v>0.00467296479647965</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1501586345381526</v>
+        <v>0.1505374037403741</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2793964429145153</v>
+        <v>0.2788553355335535</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1531207687894434</v>
+        <v>0.1509392189218921</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5465642570281125</v>
+        <v>0.5394114411441144</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2462437271311516</v>
+        <v>0.2477353225465331</v>
       </c>
       <c r="L2" t="n">
         <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>3486</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="3">
@@ -8085,40 +8099,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4811338895510527</v>
+        <v>0.4745590230664856</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.3015061581247518</v>
+        <v>0.2998175033921303</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.01827274533174415</v>
+        <v>0.02137160786974221</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.404429479539134</v>
+        <v>0.4030491858887383</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1580162892332141</v>
+        <v>0.150822591587517</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06757052046086612</v>
+        <v>0.06822116689280869</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4408621374652364</v>
+        <v>0.4736058344640434</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4076923076923077</v>
+        <v>0.4200913242009132</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.222843019020691</v>
+        <v>2.377485033539716</v>
       </c>
       <c r="L3" t="n">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="M3" t="n">
-        <v>780</v>
+        <v>876</v>
       </c>
       <c r="N3" t="n">
-        <v>2517</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="4">
@@ -8128,40 +8142,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6642060938034922</v>
+        <v>0.6422068651275823</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3354803149606299</v>
+        <v>0.3262296476306197</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01471698048613489</v>
+        <v>0.01882597205346294</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5251335159192059</v>
+        <v>0.5111461117861484</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2111205066757959</v>
+        <v>0.1964520048602672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09734611434440253</v>
+        <v>0.09092162818955037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4629613146182814</v>
+        <v>0.4701123936816525</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5598845598845599</v>
+        <v>0.5680628272251309</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.484701338627126</v>
+        <v>2.454508690804932</v>
       </c>
       <c r="L4" t="n">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="M4" t="n">
-        <v>693</v>
+        <v>764</v>
       </c>
       <c r="N4" t="n">
-        <v>2921</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" s="9">
@@ -8171,40 +8185,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4739340425531915</v>
+        <v>0.4699028416779432</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.04352705167173252</v>
+        <v>0.03901732070365359</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.003945987841945288</v>
+        <v>0.003513477672530446</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2110544072948328</v>
+        <v>0.2040197564276048</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1854091185410334</v>
+        <v>0.1799729364005413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09387963525835867</v>
+        <v>0.09058917456021652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.519957142857143</v>
+        <v>0.5147117726657646</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4435483870967742</v>
+        <v>0.448</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4608686680119891</v>
+        <v>0.4501293417481581</v>
       </c>
       <c r="L5" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N5" t="n">
-        <v>3290</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="6"/>
@@ -8445,6 +8459,20 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>070821</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>071221</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -7089,7 +7089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="C2:N5"/>
@@ -7188,31 +7188,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6807066921606121</v>
+        <v>0.6814407869844875</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01757284894837477</v>
+        <v>0.01738668180098374</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.003063709369024857</v>
+        <v>0.003031252364737042</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1353277246653922</v>
+        <v>0.1352606886114266</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2553877629063096</v>
+        <v>0.253434354899735</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1395854684512428</v>
+        <v>0.1384880817253121</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5412302103250478</v>
+        <v>0.5407934165720772</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4594594594594595</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2349400336212097</v>
+        <v>0.2349936390160663</v>
       </c>
       <c r="L2" t="n">
         <v>17</v>
@@ -7221,7 +7221,7 @@
         <v>37</v>
       </c>
       <c r="N2" t="n">
-        <v>2615</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="3">
@@ -7231,40 +7231,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.446246923076923</v>
+        <v>0.4473009049773755</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.27106</v>
+        <v>0.2729019607843137</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.02000215384615384</v>
+        <v>0.02036485671191553</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.3790784615384616</v>
+        <v>0.380449472096531</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1445561538461538</v>
+        <v>0.144368778280543</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06734730769230769</v>
+        <v>0.06716402714932126</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4830103846153846</v>
+        <v>0.4819513574660633</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4097693351424695</v>
+        <v>0.4082446808510639</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.3677767514538</v>
+        <v>2.378604658288039</v>
       </c>
       <c r="L3" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M3" t="n">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="N3" t="n">
-        <v>2600</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="4">
@@ -7274,40 +7274,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6250660828025477</v>
+        <v>0.6230604288499025</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3514323248407645</v>
+        <v>0.3496257309941522</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.02267734872611465</v>
+        <v>0.02259929824561404</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5237281050955412</v>
+        <v>0.5213161793372318</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1834657643312102</v>
+        <v>0.1812245614035088</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07877786624203824</v>
+        <v>0.07754269005847957</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.446325636942675</v>
+        <v>0.4422690058479531</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5732394366197183</v>
+        <v>0.5760111576011158</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.923095358342169</v>
+        <v>2.899062588754592</v>
       </c>
       <c r="L4" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M4" t="n">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="N4" t="n">
-        <v>2512</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="5">
@@ -7318,40 +7318,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4354239057239058</v>
+        <v>0.4317522328812439</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.0365121212121212</v>
+        <v>0.03687131988091299</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.002695420875420874</v>
+        <v>0.003309130003307971</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1858905723905723</v>
+        <v>0.1865236520013231</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1602882154882156</v>
+        <v>0.1578111147866359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08468585858585857</v>
+        <v>0.08353423751240488</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5304498316498316</v>
+        <v>0.5386821038703274</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4929577464788732</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4513799336879264</v>
+        <v>0.4667841227433481</v>
       </c>
       <c r="L5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N5" t="n">
-        <v>2970</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="6">
@@ -7524,6 +7524,13 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>071221</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>072021</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:N5"/>
@@ -7648,31 +7655,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7883692458374142</v>
+        <v>0.7860718835304822</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.02728501469147893</v>
+        <v>0.02534849863512283</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.008801273261508322</v>
+        <v>0.008176615104640579</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1892154750244857</v>
+        <v>0.1887033666969972</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.339001958863859</v>
+        <v>0.3322593266606005</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1802859941234085</v>
+        <v>0.1765750682438581</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5334857982370225</v>
+        <v>0.5329545040946314</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.32</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2939985925832188</v>
+        <v>0.2937147980231724</v>
       </c>
       <c r="L2" t="n">
         <v>8</v>
@@ -7681,7 +7688,7 @@
         <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>1021</v>
+        <v>1099</v>
       </c>
       <c r="P2" s="2" t="n"/>
       <c r="Q2" s="3" t="n"/>
@@ -7693,40 +7700,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.686712643678161</v>
+        <v>0.6884309133489462</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.5145028735632184</v>
+        <v>0.5269906323185012</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.03161091954022989</v>
+        <v>0.03279297423887589</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.5592040229885059</v>
+        <v>0.5558360655737706</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1984798850574713</v>
+        <v>0.1874754098360656</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.07469540229885058</v>
+        <v>0.07493676814988291</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.3642385057471265</v>
+        <v>0.3976814988290399</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4797297297297297</v>
+        <v>0.4640883977900552</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.336307330297411</v>
+        <v>2.731065458884073</v>
       </c>
       <c r="L3" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="M3" t="n">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="N3" t="n">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="3" t="n"/>
@@ -7738,40 +7745,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.697470512820513</v>
+        <v>0.6989214026602177</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.2461217948717949</v>
+        <v>0.2454328899637243</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.006422948717948717</v>
+        <v>0.009683796856106408</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.4680371794871796</v>
+        <v>0.4603627569528417</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2384794871794874</v>
+        <v>0.2357811366384524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1297179487179488</v>
+        <v>0.1247896009673519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.554219230769231</v>
+        <v>0.5353385731559857</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.7831644753010567</v>
+        <v>0.795487655060247</v>
       </c>
       <c r="L4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M4" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N4" t="n">
-        <v>780</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5">
@@ -7782,40 +7789,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.6110648275862069</v>
+        <v>0.6029937578027466</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.04959172413793104</v>
+        <v>0.05741073657927591</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.006891448275862072</v>
+        <v>0.00623757802746567</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2679393103448277</v>
+        <v>0.2650037453183521</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2605006896551726</v>
+        <v>0.2483083645443198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1146882758620689</v>
+        <v>0.1088352059925093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4514993103448275</v>
+        <v>0.446612983770287</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4617729046541815</v>
+        <v>0.4853250385446712</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>725</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6">
@@ -7936,6 +7943,13 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>061521</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>072021</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:N5"/>
@@ -8056,31 +8070,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7109595709570958</v>
+        <v>0.7122071084981294</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.02021782178217822</v>
+        <v>0.01964510956707643</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.00467296479647965</v>
+        <v>0.004540593265633354</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1505374037403741</v>
+        <v>0.1510887226082309</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2788553355335535</v>
+        <v>0.2765649385355426</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1509392189218921</v>
+        <v>0.1496095670764296</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5394114411441144</v>
+        <v>0.5389748797434527</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4098360655737705</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2477353225465331</v>
+        <v>0.2486492872205223</v>
       </c>
       <c r="L2" t="n">
         <v>25</v>
@@ -8089,7 +8103,7 @@
         <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>3636</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="3">
@@ -8099,40 +8113,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4745590230664856</v>
+        <v>0.4806619032153295</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2998175033921303</v>
+        <v>0.3081643390711271</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.02137160786974221</v>
+        <v>0.02208759337447224</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.4030491858887383</v>
+        <v>0.4076420915881781</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.150822591587517</v>
+        <v>0.1502344917180903</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06822116689280869</v>
+        <v>0.06825430334524196</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4736058344640434</v>
+        <v>0.4747288080545632</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4200913242009132</v>
+        <v>0.4177489177489178</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.377485033539716</v>
+        <v>2.440985995087718</v>
       </c>
       <c r="L3" t="n">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="M3" t="n">
-        <v>876</v>
+        <v>924</v>
       </c>
       <c r="N3" t="n">
-        <v>2948</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="4">
@@ -8142,40 +8156,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6422068651275823</v>
+        <v>0.6415521816037739</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3262296476306197</v>
+        <v>0.3239823113207547</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01882597205346294</v>
+        <v>0.01945020636792453</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5111461117861484</v>
+        <v>0.5069554834905663</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1964520048602672</v>
+        <v>0.1944929245283018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09092162818955037</v>
+        <v>0.08912558962264146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4701123936816525</v>
+        <v>0.4630630896226415</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5680628272251309</v>
+        <v>0.5694087403598972</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.454508690804932</v>
+        <v>2.420472467609032</v>
       </c>
       <c r="L4" t="n">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="M4" t="n">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="N4" t="n">
-        <v>3292</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" s="9">
@@ -8185,40 +8199,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4699028416779432</v>
+        <v>0.4676459205020921</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.03901732070365359</v>
+        <v>0.04110826359832637</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.003513477672530446</v>
+        <v>0.003917834728033472</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2040197564276048</v>
+        <v>0.204963650627615</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1799729364005413</v>
+        <v>0.176769089958159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09058917456021652</v>
+        <v>0.08884884937238495</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5147117726657646</v>
+        <v>0.5126974372384938</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.448</v>
+        <v>0.4817518248175183</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4501293417481581</v>
+        <v>0.4632813592467166</v>
       </c>
       <c r="L5" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M5" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="N5" t="n">
-        <v>3695</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="6"/>
@@ -8473,6 +8487,13 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>072021</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/stat averages.xlsx
+++ b/Outputs/stat averages.xlsx
@@ -7089,7 +7089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="C2:N5"/>
@@ -7188,31 +7188,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.6814407869844875</v>
+        <v>0.6808793103448278</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01738668180098374</v>
+        <v>0.01685730007336758</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.003031252364737042</v>
+        <v>0.002938958180484227</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1352606886114266</v>
+        <v>0.1345524578136466</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.253434354899735</v>
+        <v>0.2515942773294202</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1384880817253121</v>
+        <v>0.1368290535583272</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5407934165720772</v>
+        <v>0.5376636096845195</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4594594594594595</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2349936390160663</v>
+        <v>0.2336236932940071</v>
       </c>
       <c r="L2" t="n">
         <v>17</v>
@@ -7221,7 +7221,7 @@
         <v>37</v>
       </c>
       <c r="N2" t="n">
-        <v>2643</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="3">
@@ -7231,40 +7231,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4473009049773755</v>
+        <v>0.4456101529450049</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.2729019607843137</v>
+        <v>0.2710292873413602</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.02036485671191553</v>
+        <v>0.02082694435405142</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.380449472096531</v>
+        <v>0.3770244061178002</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.144368778280543</v>
+        <v>0.1382290920924178</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06716402714932126</v>
+        <v>0.0673891962251871</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4819513574660633</v>
+        <v>0.5109013992840873</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4082446808510639</v>
+        <v>0.4092570036540804</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.378604658288039</v>
+        <v>2.32959308616332</v>
       </c>
       <c r="L3" t="n">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="M3" t="n">
-        <v>752</v>
+        <v>821</v>
       </c>
       <c r="N3" t="n">
-        <v>2652</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="4">
@@ -7274,40 +7274,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6230604288499025</v>
+        <v>0.6081689189189189</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3496257309941522</v>
+        <v>0.3428212837837839</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.02259929824561404</v>
+        <v>0.02431837837837838</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5213161793372318</v>
+        <v>0.5181972972972972</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1812245614035088</v>
+        <v>0.1682317567567568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07754269005847957</v>
+        <v>0.07090168918918921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4422690058479531</v>
+        <v>0.4271195945945945</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5760111576011158</v>
+        <v>0.5843672456575683</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.899062588754592</v>
+        <v>3.106265385187679</v>
       </c>
       <c r="L4" t="n">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="M4" t="n">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="N4" t="n">
-        <v>2565</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="5">
@@ -7318,40 +7318,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4317522328812439</v>
+        <v>0.4194790454016298</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.03687131988091299</v>
+        <v>0.03450349243306168</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.003309130003307971</v>
+        <v>0.003203783469150174</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1865236520013231</v>
+        <v>0.1813128637951105</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1578111147866359</v>
+        <v>0.1513169383003493</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08353423751240488</v>
+        <v>0.08164289871944118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5386821038703274</v>
+        <v>0.5530727590221187</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5068493150684932</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4667841227433481</v>
+        <v>0.461181141750041</v>
       </c>
       <c r="L5" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M5" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N5" t="n">
-        <v>3023</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="6">
@@ -7531,6 +7531,20 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>072021</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>072621</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>080921</t>
         </is>
       </c>
     </row>
@@ -7966,7 +7980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:N5"/>
@@ -8070,31 +8084,31 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.7122071084981294</v>
+        <v>0.7111393464052288</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.01964510956707643</v>
+        <v>0.01921882352941176</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.004540593265633354</v>
+        <v>0.004442065359477127</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>0.1510887226082309</v>
+        <v>0.150240522875817</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.2765649385355426</v>
+        <v>0.2747516339869282</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>0.1496095670764296</v>
+        <v>0.1481858823529411</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>0.5389748797434527</v>
+        <v>0.5367837908496732</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>0.4098360655737705</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2486492872205223</v>
+        <v>0.2473766360207044</v>
       </c>
       <c r="L2" t="n">
         <v>25</v>
@@ -8103,7 +8117,7 @@
         <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>3742</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="3">
@@ -8113,40 +8127,40 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0.4806619032153295</v>
+        <v>0.4751645714285713</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.3081643390711271</v>
+        <v>0.3022785714285716</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.02208759337447224</v>
+        <v>0.02228608571428572</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>0.4076420915881781</v>
+        <v>0.4013640000000001</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.1502344917180903</v>
+        <v>0.1441382857142858</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>0.06825430334524196</v>
+        <v>0.06832085714285716</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>0.4747288080545632</v>
+        <v>0.5010157142857143</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.4177489177489178</v>
+        <v>0.4179254783484391</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>2.440985995087718</v>
+        <v>2.390450251107167</v>
       </c>
       <c r="L3" t="n">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="M3" t="n">
-        <v>924</v>
+        <v>993</v>
       </c>
       <c r="N3" t="n">
-        <v>3079</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4">
@@ -8156,40 +8170,40 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.6415521816037739</v>
+        <v>0.6279838922630053</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3239823113207547</v>
+        <v>0.3213385265381568</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01945020636792453</v>
+        <v>0.0211223395827832</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5069554834905663</v>
+        <v>0.5060155796144707</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1944929245283018</v>
+        <v>0.1829535252178505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08912558962264146</v>
+        <v>0.08272669659360966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4630630896226415</v>
+        <v>0.4490530763137047</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5694087403598972</v>
+        <v>0.5778546712802768</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2.420472467609032</v>
+        <v>2.632345553242629</v>
       </c>
       <c r="L4" t="n">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="M4" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="N4" t="n">
-        <v>3392</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" s="9">
@@ -8199,40 +8213,40 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.4676459205020921</v>
+        <v>0.4541942412084021</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.04110826359832637</v>
+        <v>0.03877507670521595</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.003917834728033472</v>
+        <v>0.003773070568798678</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.204963650627615</v>
+        <v>0.1989405239556289</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.176769089958159</v>
+        <v>0.1696547085201794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08884884937238495</v>
+        <v>0.08679702619778146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5126974372384938</v>
+        <v>0.5269004012272835</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4817518248175183</v>
+        <v>0.4895104895104895</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>0.4632813592467166</v>
+        <v>0.4590790459663545</v>
       </c>
       <c r="L5" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N5" t="n">
-        <v>3824</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="6"/>
@@ -8494,6 +8508,20 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>072621</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>080921</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
